--- a/config/MLA_MSTIConfig.xlsx
+++ b/config/MLA_MSTIConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D74F6-42AB-43D1-A54A-B8FF99752629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B004F14F-1F35-4576-868D-A353FA5B4D94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1081">
   <si>
     <t>paradigm</t>
   </si>
@@ -118,6 +118,9 @@
     <t>sigTestMethod</t>
   </si>
   <si>
+    <t>ranksum</t>
+  </si>
+  <si>
     <t>sigTestWin</t>
   </si>
   <si>
@@ -160,8 +163,2965 @@
     <t>@MLA_PlotRasterLfp_MSTI</t>
   </si>
   <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
     <t>ranksum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -355,7 +3315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -405,11 +3365,32 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
@@ -446,6 +3427,27 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="true" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,102 +3762,102 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>1037</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>1040</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>55</v>
+        <v>1042</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>58</v>
+        <v>1045</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>1048</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>64</v>
+        <v>1051</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>67</v>
+        <v>1054</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>69</v>
+        <v>1056</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>71</v>
+        <v>1058</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>73</v>
+        <v>1060</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>74</v>
+        <v>1061</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>75</v>
+        <v>1062</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>78</v>
+        <v>1065</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>80</v>
+        <v>1067</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>82</v>
+        <v>1069</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>83</v>
+        <v>1070</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>84</v>
+        <v>1071</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>86</v>
+        <v>1073</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>88</v>
+        <v>1075</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>90</v>
+        <v>1077</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>92</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" ht="51" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>1035</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>1043</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>1046</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>1049</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>1052</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>1055</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>1057</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>72</v>
+        <v>1059</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -864,13 +3866,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>1063</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>79</v>
+        <v>1066</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>1068</v>
       </c>
       <c r="P2" s="12">
         <v>12</v>
@@ -879,51 +3881,51 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>1072</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>87</v>
+        <v>1074</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>89</v>
+        <v>1076</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>91</v>
+        <v>1078</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>93</v>
+        <v>1080</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>1039</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>1041</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>1044</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>1047</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>1050</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>1053</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>1055</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>1057</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>72</v>
+        <v>1059</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -932,13 +3934,13 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>77</v>
+        <v>1064</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>79</v>
+        <v>1066</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>81</v>
+        <v>1068</v>
       </c>
       <c r="P3" s="12">
         <v>12</v>
@@ -947,19 +3949,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>1072</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>87</v>
+        <v>1074</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>89</v>
+        <v>1076</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>91</v>
+        <v>1078</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>93</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_MSTIConfig.xlsx
+++ b/config/MLA_MSTIConfig.xlsx
@@ -20,7 +20,430 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1222">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -3315,7 +3738,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -3386,11 +3809,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
@@ -3448,6 +3874,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3762,102 +4191,102 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1034</v>
+        <v>1175</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1037</v>
+        <v>1178</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1040</v>
+        <v>1181</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1042</v>
+        <v>1183</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1045</v>
+        <v>1186</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1048</v>
+        <v>1189</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>1051</v>
+        <v>1192</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1054</v>
+        <v>1195</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>1056</v>
+        <v>1197</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>1058</v>
+        <v>1199</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>1061</v>
+        <v>1202</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>1062</v>
+        <v>1203</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>1065</v>
+        <v>1206</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>1067</v>
+        <v>1208</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>1069</v>
+        <v>1210</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1070</v>
+        <v>1211</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>1071</v>
+        <v>1212</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>1073</v>
+        <v>1214</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>1075</v>
+        <v>1216</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>1077</v>
+        <v>1218</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>1079</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="2" ht="51" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1035</v>
+        <v>1176</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1038</v>
+        <v>1179</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1041</v>
+        <v>1182</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1043</v>
+        <v>1184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1046</v>
+        <v>1187</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1049</v>
+        <v>1190</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1052</v>
+        <v>1193</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1055</v>
+        <v>1196</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1057</v>
+        <v>1198</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1059</v>
+        <v>1200</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -3866,13 +4295,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1063</v>
+        <v>1204</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1066</v>
+        <v>1207</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1068</v>
+        <v>1209</v>
       </c>
       <c r="P2" s="12">
         <v>12</v>
@@ -3881,51 +4310,51 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1072</v>
+        <v>1213</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>1074</v>
+        <v>1215</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1076</v>
+        <v>1217</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1078</v>
+        <v>1219</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1080</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1036</v>
+        <v>1177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1039</v>
+        <v>1180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1041</v>
+        <v>1182</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1044</v>
+        <v>1185</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1050</v>
+        <v>1191</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1053</v>
+        <v>1194</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1055</v>
+        <v>1196</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1057</v>
+        <v>1198</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1059</v>
+        <v>1200</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -3934,13 +4363,13 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1064</v>
+        <v>1205</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1066</v>
+        <v>1207</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1068</v>
+        <v>1209</v>
       </c>
       <c r="P3" s="12">
         <v>12</v>
@@ -3949,19 +4378,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1072</v>
+        <v>1213</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>1074</v>
+        <v>1215</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1076</v>
+        <v>1217</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1078</v>
+        <v>1219</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1080</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_MSTIConfig.xlsx
+++ b/config/MLA_MSTIConfig.xlsx
@@ -20,7 +20,712 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1457">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -3738,7 +4443,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -3812,11 +4517,16 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
@@ -3877,6 +4587,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4191,102 +4906,102 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1175</v>
+        <v>1410</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1178</v>
+        <v>1413</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1181</v>
+        <v>1416</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1183</v>
+        <v>1418</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1186</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1189</v>
+        <v>1424</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>1192</v>
+        <v>1427</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1195</v>
+        <v>1430</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>1197</v>
+        <v>1432</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>1199</v>
+        <v>1434</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1201</v>
+        <v>1436</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>1202</v>
+        <v>1437</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>1203</v>
+        <v>1438</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>1206</v>
+        <v>1441</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>1208</v>
+        <v>1443</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>1210</v>
+        <v>1445</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1211</v>
+        <v>1446</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>1212</v>
+        <v>1447</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>1214</v>
+        <v>1449</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>1216</v>
+        <v>1451</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>1218</v>
+        <v>1453</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>1220</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" ht="51" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1176</v>
+        <v>1411</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1179</v>
+        <v>1414</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1182</v>
+        <v>1417</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1184</v>
+        <v>1419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1187</v>
+        <v>1422</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1190</v>
+        <v>1425</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1193</v>
+        <v>1428</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1196</v>
+        <v>1431</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1198</v>
+        <v>1433</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1200</v>
+        <v>1435</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -4295,13 +5010,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1204</v>
+        <v>1439</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1207</v>
+        <v>1442</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1209</v>
+        <v>1444</v>
       </c>
       <c r="P2" s="12">
         <v>12</v>
@@ -4310,51 +5025,51 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1213</v>
+        <v>1448</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>1215</v>
+        <v>1450</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1217</v>
+        <v>1452</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1219</v>
+        <v>1454</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1221</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1177</v>
+        <v>1412</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1180</v>
+        <v>1415</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1182</v>
+        <v>1417</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1185</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1188</v>
+        <v>1423</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1191</v>
+        <v>1426</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1194</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1196</v>
+        <v>1431</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1198</v>
+        <v>1433</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1200</v>
+        <v>1435</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -4363,13 +5078,13 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1205</v>
+        <v>1440</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1207</v>
+        <v>1442</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1209</v>
+        <v>1444</v>
       </c>
       <c r="P3" s="12">
         <v>12</v>
@@ -4378,19 +5093,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1213</v>
+        <v>1448</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>1215</v>
+        <v>1450</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1217</v>
+        <v>1452</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1219</v>
+        <v>1454</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1221</v>
+        <v>1456</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_MSTIConfig.xlsx
+++ b/config/MLA_MSTIConfig.xlsx
@@ -20,7 +20,4237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="2867">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_4_4.5_5</t>
+  </si>
+  <si>
+    <t>MSTI_5_4.5_4</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\4ms_ICIs_4o5_5_ISI-600_StdDur-300_BG_Start-1000;E:\ratNeuroPixel\monkeySounds\2022-12-03_MMN_BackGround_1000\8ms_ICIs_9_10_ISI-600_StdDur-300_BG_Start-1000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5;Reg9_Reg10</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4;Reg9_Reg8</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg5,Reg5_Reg4o5,ManyStd_Reg5,ManyStd_Reg4o5,Reg9_Reg10,Reg10_Reg9,ManyStd_Reg10,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5,Reg9_Reg8,Reg8_Reg9,ManyStd_Reg8,ManyStd_Reg9</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>1001,1603,2205,2807,3410,4012,4614,5216,5818,6420;1001,1602,2202,2803,3404,4005,4605,5206,5807,6408;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1604,2203,2803,3405,4004,4604,5206,5807,6407;1001,1602,2204,2805,3406,4008,4609,5210,5812,6413;1001,1605,2210,2814,3419,4023,4628,5232,5836,6441;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443;1001,1608,2212,2817,3420,4026,4630,5235,5839,6443</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>selWin</t>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+  </si>
+  <si>
+    <t>ICAWin</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+  </si>
+  <si>
+    <t>plotRows</t>
+  </si>
+  <si>
+    <t>plotWin</t>
+  </si>
+  <si>
+    <t>-7000,1000</t>
+  </si>
+  <si>
+    <t>-8000,1000</t>
+  </si>
+  <si>
+    <t>sigTestMethod</t>
+  </si>
+  <si>
+    <t>ranksum</t>
+  </si>
+  <si>
+    <t>sigTestWin</t>
+  </si>
+  <si>
+    <t>0,100</t>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+  </si>
+  <si>
+    <t>compareCol</t>
+  </si>
+  <si>
+    <t>compareWin</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_MSTI</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -4443,7 +8673,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -4522,11 +8752,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
@@ -4592,6 +8852,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4906,102 +9196,102 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1410</v>
+        <v>2820</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1413</v>
+        <v>2823</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1416</v>
+        <v>2826</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1418</v>
+        <v>2828</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1421</v>
+        <v>2831</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1424</v>
+        <v>2834</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>1427</v>
+        <v>2837</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1430</v>
+        <v>2840</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>1432</v>
+        <v>2842</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>1434</v>
+        <v>2844</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1436</v>
+        <v>2846</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>1437</v>
+        <v>2847</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>1438</v>
+        <v>2848</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>1441</v>
+        <v>2851</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>1443</v>
+        <v>2853</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>1445</v>
+        <v>2855</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1446</v>
+        <v>2856</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>1447</v>
+        <v>2857</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>1449</v>
+        <v>2859</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>1451</v>
+        <v>2861</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>1453</v>
+        <v>2863</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>1455</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="2" ht="51" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1411</v>
+        <v>2821</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1414</v>
+        <v>2824</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1417</v>
+        <v>2827</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1419</v>
+        <v>2829</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1422</v>
+        <v>2832</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1425</v>
+        <v>2835</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1428</v>
+        <v>2838</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1431</v>
+        <v>2841</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1433</v>
+        <v>2843</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1435</v>
+        <v>2845</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -5010,13 +9300,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1439</v>
+        <v>2849</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1442</v>
+        <v>2852</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1444</v>
+        <v>2854</v>
       </c>
       <c r="P2" s="12">
         <v>12</v>
@@ -5025,51 +9315,51 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1448</v>
+        <v>2858</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>1450</v>
+        <v>2860</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1452</v>
+        <v>2862</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1454</v>
+        <v>2864</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1456</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1412</v>
+        <v>2822</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1415</v>
+        <v>2825</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1417</v>
+        <v>2827</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1420</v>
+        <v>2830</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1423</v>
+        <v>2833</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1426</v>
+        <v>2836</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1429</v>
+        <v>2839</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1431</v>
+        <v>2841</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1433</v>
+        <v>2843</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1435</v>
+        <v>2845</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -5078,13 +9368,13 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1440</v>
+        <v>2850</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1442</v>
+        <v>2852</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1444</v>
+        <v>2854</v>
       </c>
       <c r="P3" s="12">
         <v>12</v>
@@ -5093,19 +9383,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1448</v>
+        <v>2858</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>1450</v>
+        <v>2860</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1452</v>
+        <v>2862</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1454</v>
+        <v>2864</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1456</v>
+        <v>2866</v>
       </c>
     </row>
   </sheetData>
